--- a/case_study/experiments/policy1Hz/multi/base/NoEnforcer.xlsx
+++ b/case_study/experiments/policy1Hz/multi/base/NoEnforcer.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\multi\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\multi\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FE700-72F0-46FF-9139-F7E90E30A861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23A8019-DFA3-47E5-BFC0-ACD3026F422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
   <si>
     <t>execution_id</t>
   </si>
@@ -89,6 +102,15 @@
   </si>
   <si>
     <t>d2745511-805e-4840-a18f-d2c4d96b7985</t>
+  </si>
+  <si>
+    <t>N. crash:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
@@ -451,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -559,7 +581,7 @@
         <v>11922.85043100037</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -609,7 +631,7 @@
         <v>14335.340943000119</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -659,7 +681,7 @@
         <v>14236.708834000179</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -709,7 +731,7 @@
         <v>14003.31752000011</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -759,7 +781,7 @@
         <v>14269.046772000371</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -809,7 +831,7 @@
         <v>12815.4496330003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -859,7 +881,7 @@
         <v>14162.91792899983</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -909,7 +931,7 @@
         <v>14225.83793900003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -959,7 +981,7 @@
         <v>2446.4276950002391</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>14071.313034999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>12781.82598800049</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1131,7 @@
         <v>15385.22475999889</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1181,7 @@
         <v>14842.67581200038</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>14694.38845299919</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1281,7 @@
         <v>15036.42441699958</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>14598.387734000429</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>14680.71396300002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1431,7 @@
         <v>14585.987770000431</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +1481,7 @@
         <v>15488.86170399965</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1531,7 @@
         <v>14613.99330899985</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1559,7 +1581,7 @@
         <v>15068.96109000081</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>14466.54972400029</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1681,7 @@
         <v>15177.22630900062</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>8274.8159800012218</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v>14883.969978998721</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>14919.653074999591</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>15210.58947200072</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1909,7 +1931,7 @@
         <v>14853.0945450002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1959,7 +1981,7 @@
         <v>14963.6945759994</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2031,7 @@
         <v>15174.793358000899</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2059,7 +2081,7 @@
         <v>15037.76941700016</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>15743.30757600001</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>14589.3279439988</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2231,7 @@
         <v>15342.915977000301</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2259,7 +2281,7 @@
         <v>14337.67165599966</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2309,7 +2331,7 @@
         <v>6066.2077279994264</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2381,7 @@
         <v>14888.496305000441</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>14671.867237000701</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2459,7 +2481,7 @@
         <v>1522.8854249999131</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2531,7 @@
         <v>15274.26451400061</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2581,7 @@
         <v>4354.5389760001854</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2609,7 +2631,7 @@
         <v>14083.492803998521</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2681,7 @@
         <v>14770.567088999091</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2709,7 +2731,7 @@
         <v>14774.474288999039</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>15213.999442001301</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2809,7 +2831,7 @@
         <v>14670.853778001399</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2881,7 @@
         <v>15283.183197998371</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>15502.33393200142</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2981,7 @@
         <v>11891.851468000819</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3007,6 +3029,57 @@
       </c>
       <c r="P51">
         <v>15539.05065899926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(G2:G51,"True")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <f>AVERAGE(H2:H51)</f>
+        <v>1.6622709140014655</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:P54" si="0">AVERAGE(I2:I51)</f>
+        <v>1.931979355316163</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>92.28</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>13595.002043260043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <f>_xlfn.STDEV.S(H2:H51)</f>
+        <v>0.64687618393860646</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:P55" si="1">_xlfn.STDEV.S(I2:I51)</f>
+        <v>0.45011253817069624</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>21.538802195108261</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>3248.7071812106046</v>
       </c>
     </row>
   </sheetData>

--- a/case_study/experiments/policy1Hz/multi/base/NoEnforcer.xlsx
+++ b/case_study/experiments/policy1Hz/multi/base/NoEnforcer.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\abz2025_casestudy_autonomous_driving\case_study\experiments\policy1Hz\multi\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicopellegrinelli\abz2025_casestudy_autonomous_driving\enforcement\data\multi\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23A8019-DFA3-47E5-BFC0-ACD3026F422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FE700-72F0-46FF-9139-F7E90E30A861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="23">
   <si>
     <t>execution_id</t>
   </si>
@@ -102,15 +89,6 @@
   </si>
   <si>
     <t>d2745511-805e-4840-a18f-d2c4d96b7985</t>
-  </si>
-  <si>
-    <t>N. crash:</t>
-  </si>
-  <si>
-    <t>Mean:</t>
-  </si>
-  <si>
-    <t>Standard Deviation:</t>
   </si>
 </sst>
 </file>
@@ -473,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -581,7 +559,7 @@
         <v>11922.85043100037</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -631,7 +609,7 @@
         <v>14335.340943000119</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -681,7 +659,7 @@
         <v>14236.708834000179</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -731,7 +709,7 @@
         <v>14003.31752000011</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -781,7 +759,7 @@
         <v>14269.046772000371</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -831,7 +809,7 @@
         <v>12815.4496330003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -881,7 +859,7 @@
         <v>14162.91792899983</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -931,7 +909,7 @@
         <v>14225.83793900003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -981,7 +959,7 @@
         <v>2446.4276950002391</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1009,7 @@
         <v>14071.313034999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1059,7 @@
         <v>12781.82598800049</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1109,7 @@
         <v>15385.22475999889</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1159,7 @@
         <v>14842.67581200038</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1209,7 @@
         <v>14694.38845299919</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1259,7 @@
         <v>15036.42441699958</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1309,7 @@
         <v>14598.387734000429</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1359,7 @@
         <v>14680.71396300002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1409,7 @@
         <v>14585.987770000431</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1481,7 +1459,7 @@
         <v>15488.86170399965</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1531,7 +1509,7 @@
         <v>14613.99330899985</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1559,7 @@
         <v>15068.96109000081</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +1609,7 @@
         <v>14466.54972400029</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +1659,7 @@
         <v>15177.22630900062</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1731,7 +1709,7 @@
         <v>8274.8159800012218</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1781,7 +1759,7 @@
         <v>14883.969978998721</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +1809,7 @@
         <v>14919.653074999591</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +1859,7 @@
         <v>15210.58947200072</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1931,7 +1909,7 @@
         <v>14853.0945450002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1959,7 @@
         <v>14963.6945759994</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2009,7 @@
         <v>15174.793358000899</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2081,7 +2059,7 @@
         <v>15037.76941700016</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2131,7 +2109,7 @@
         <v>15743.30757600001</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2181,7 +2159,7 @@
         <v>14589.3279439988</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2231,7 +2209,7 @@
         <v>15342.915977000301</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2281,7 +2259,7 @@
         <v>14337.67165599966</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2331,7 +2309,7 @@
         <v>6066.2077279994264</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2381,7 +2359,7 @@
         <v>14888.496305000441</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2431,7 +2409,7 @@
         <v>14671.867237000701</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2481,7 +2459,7 @@
         <v>1522.8854249999131</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2509,7 @@
         <v>15274.26451400061</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2559,7 @@
         <v>4354.5389760001854</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2631,7 +2609,7 @@
         <v>14083.492803998521</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2681,7 +2659,7 @@
         <v>14770.567088999091</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2731,7 +2709,7 @@
         <v>14774.474288999039</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2781,7 +2759,7 @@
         <v>15213.999442001301</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2831,7 +2809,7 @@
         <v>14670.853778001399</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2881,7 +2859,7 @@
         <v>15283.183197998371</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2909,7 @@
         <v>15502.33393200142</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -2981,7 +2959,7 @@
         <v>11891.851468000819</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3029,57 +3007,6 @@
       </c>
       <c r="P51">
         <v>15539.05065899926</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53">
-        <f>COUNTIF(G2:G51,"True")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54">
-        <f>AVERAGE(H2:H51)</f>
-        <v>1.6622709140014655</v>
-      </c>
-      <c r="I54">
-        <f t="shared" ref="I54:P54" si="0">AVERAGE(I2:I51)</f>
-        <v>1.931979355316163</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>92.28</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>13595.002043260043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55">
-        <f>_xlfn.STDEV.S(H2:H51)</f>
-        <v>0.64687618393860646</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ref="I55:P55" si="1">_xlfn.STDEV.S(I2:I51)</f>
-        <v>0.45011253817069624</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>21.538802195108261</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>3248.7071812106046</v>
       </c>
     </row>
   </sheetData>
